--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1814" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8B32967-0CFE-41C6-89A5-818B6B8D61D8}"/>
+  <xr:revisionPtr revIDLastSave="1843" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96329E69-BF8B-4EC3-B1AF-14ED06733719}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Women's Singles GS Champs" sheetId="1" r:id="rId1"/>
+    <sheet name="Men's Singles Grand Slam Champs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Women''s Singles GS Champs'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Men''s Singles Grand Slam Champs'!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>WINS</t>
   </si>
@@ -70,18 +70,6 @@
   </si>
   <si>
     <t>Juan Martín Del Potro (ARGENTINA)</t>
-  </si>
-  <si>
-    <t>Daniil Medvedev (RUSSIA)</t>
-  </si>
-  <si>
-    <t>Carlos Alcaraz (SPAIN)</t>
-  </si>
-  <si>
-    <t>Lleyton Hewitt (AUSTRALIA)</t>
-  </si>
-  <si>
-    <t>Marat Safin (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -144,6 +132,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,7 +427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -446,10 +438,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,20 +480,20 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D2">
-        <v>1043</v>
+        <v>1055</v>
       </c>
       <c r="E2">
         <v>204</v>
       </c>
       <c r="F2" s="2">
         <f>(D2-E2)/D2</f>
-        <v>0.80441035474592526</v>
+        <v>0.8066350710900474</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -510,20 +502,20 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C3">
         <v>92</v>
       </c>
       <c r="D3">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="E3">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F3" s="2">
         <f>(D3-E3)/D3</f>
-        <v>0.79430670339761245</v>
+        <v>0.79357798165137616</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -531,48 +523,81 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="B4">
+        <v>313</v>
+      </c>
+      <c r="C4">
+        <v>46</v>
+      </c>
+      <c r="D4">
+        <v>750</v>
+      </c>
+      <c r="E4">
+        <v>249</v>
+      </c>
+      <c r="F4" s="2">
+        <f>(D4-E4)/D4</f>
+        <v>0.66800000000000004</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>232</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>488</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5" s="2">
+        <f>(D5-E5)/D5</f>
+        <v>0.5901639344262295</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>378</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>616</v>
+      </c>
+      <c r="E6">
+        <v>347</v>
+      </c>
+      <c r="F6" s="2">
+        <f>(D6-E6)/D6</f>
+        <v>0.43668831168831168</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
@@ -590,7 +615,6 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F15" s="2"/>
@@ -606,6 +630,7 @@
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F19" s="2"/>
@@ -624,19 +649,15 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F23" s="2"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F24" s="2"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F25" s="2"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F26" s="2"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.3">
@@ -666,25 +687,13 @@
     <row r="35" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G39" s="1"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{886A4C9F-69C7-4226-BCD2-6825075A697E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F26">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F8">
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F43 F2:F20">
+  <conditionalFormatting sqref="F39 F2:F16">
     <cfRule type="iconSet" priority="61">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -693,8 +702,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F26">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="F2:F22">
+    <cfRule type="iconSet" priority="67">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1843" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96329E69-BF8B-4EC3-B1AF-14ED06733719}"/>
+  <xr:revisionPtr revIDLastSave="1866" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD7F3B7C-9403-4D48-A1C8-273B11791F4F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>WINS</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Juan Martín Del Potro (ARGENTINA)</t>
+  </si>
+  <si>
+    <t>Carlos Alcaraz (SPAIN)</t>
+  </si>
+  <si>
+    <t>Daniil Medvedev (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -441,7 +447,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,76 +527,112 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>313</v>
+        <v>52</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>750</v>
+        <v>128</v>
       </c>
       <c r="E4">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2">
         <f>(D4-E4)/D4</f>
-        <v>0.66800000000000004</v>
+        <v>0.6796875</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>232</v>
+        <v>314</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D5">
-        <v>488</v>
+        <v>757</v>
       </c>
       <c r="E5">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F5" s="2">
         <f>(D5-E5)/D5</f>
-        <v>0.5901639344262295</v>
+        <v>0.66974900924702774</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>378</v>
+        <v>232</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>616</v>
+        <v>488</v>
       </c>
       <c r="E6">
-        <v>347</v>
+        <v>200</v>
       </c>
       <c r="F6" s="2">
         <f>(D6-E6)/D6</f>
+        <v>0.5901639344262295</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>164</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>343</v>
+      </c>
+      <c r="E7">
+        <v>148</v>
+      </c>
+      <c r="F7" s="2">
+        <f>(D7-E7)/D7</f>
+        <v>0.56851311953352768</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>378</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>616</v>
+      </c>
+      <c r="E8">
+        <v>347</v>
+      </c>
+      <c r="F8" s="2">
+        <f>(D8-E8)/D8</f>
         <v>0.43668831168831168</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F8" s="2"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1866" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD7F3B7C-9403-4D48-A1C8-273B11791F4F}"/>
+  <xr:revisionPtr revIDLastSave="1872" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDA753C9-F699-4DEE-A3B0-A4B24BAB6874}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,20 +486,20 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C2">
         <v>93</v>
       </c>
       <c r="D2">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="E2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F2" s="2">
-        <f>(D2-E2)/D2</f>
-        <v>0.8066350710900474</v>
+        <f t="shared" ref="F2:F8" si="0">(D2-E2)/D2</f>
+        <v>0.80623818525519853</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -520,7 +520,7 @@
         <v>225</v>
       </c>
       <c r="F3" s="2">
-        <f>(D3-E3)/D3</f>
+        <f t="shared" si="0"/>
         <v>0.79357798165137616</v>
       </c>
       <c r="G3" s="1"/>
@@ -542,7 +542,7 @@
         <v>41</v>
       </c>
       <c r="F4" s="2">
-        <f>(D4-E4)/D4</f>
+        <f t="shared" si="0"/>
         <v>0.6796875</v>
       </c>
       <c r="G4" s="1"/>
@@ -564,7 +564,7 @@
         <v>250</v>
       </c>
       <c r="F5" s="2">
-        <f>(D5-E5)/D5</f>
+        <f t="shared" si="0"/>
         <v>0.66974900924702774</v>
       </c>
       <c r="G5" s="1"/>
@@ -586,7 +586,7 @@
         <v>200</v>
       </c>
       <c r="F6" s="2">
-        <f>(D6-E6)/D6</f>
+        <f t="shared" si="0"/>
         <v>0.5901639344262295</v>
       </c>
       <c r="G6" s="1"/>
@@ -596,20 +596,20 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="E7">
         <v>148</v>
       </c>
       <c r="F7" s="2">
-        <f>(D7-E7)/D7</f>
-        <v>0.56851311953352768</v>
+        <f t="shared" si="0"/>
+        <v>0.57471264367816088</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -630,7 +630,7 @@
         <v>347</v>
       </c>
       <c r="F8" s="2">
-        <f>(D8-E8)/D8</f>
+        <f t="shared" si="0"/>
         <v>0.43668831168831168</v>
       </c>
       <c r="G8" s="1"/>
@@ -735,7 +735,7 @@
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F39 F2:F16">
+  <conditionalFormatting sqref="F2:F16 F39">
     <cfRule type="iconSet" priority="61">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1872" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDA753C9-F699-4DEE-A3B0-A4B24BAB6874}"/>
+  <xr:revisionPtr revIDLastSave="1884" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{255EF9B7-5803-42D9-9D78-3E9997CACDFF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -138,10 +138,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,7 +443,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,20 +526,20 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E4">
         <v>41</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.6796875</v>
+        <v>0.69402985074626866</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -552,20 +548,20 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C5">
         <v>46</v>
       </c>
       <c r="D5">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E5">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.66974900924702774</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -596,20 +592,20 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>19</v>
       </c>
       <c r="D7">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E7">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.57471264367816088</v>
+        <v>0.57790368271954673</v>
       </c>
       <c r="G7" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1884" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{255EF9B7-5803-42D9-9D78-3E9997CACDFF}"/>
+  <xr:revisionPtr revIDLastSave="1887" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CDBEEA0-35B6-4D06-BA27-31023A11575B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -138,6 +138,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,7 +447,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,20 +530,20 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
       <c r="D4">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.69402985074626866</v>
+        <v>0.69565217391304346</v>
       </c>
       <c r="G4" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1887" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CDBEEA0-35B6-4D06-BA27-31023A11575B}"/>
+  <xr:revisionPtr revIDLastSave="1891" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{387A7A0B-F926-4B4C-BD7C-A836DD563F83}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +498,7 @@
         <v>205</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F8" si="0">(D2-E2)/D2</f>
+        <f>(D2-E2)/D2</f>
         <v>0.80623818525519853</v>
       </c>
       <c r="G2" s="1"/>
@@ -520,7 +520,7 @@
         <v>225</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
+        <f>(D3-E3)/D3</f>
         <v>0.79357798165137616</v>
       </c>
       <c r="G3" s="1"/>
@@ -542,7 +542,7 @@
         <v>42</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f>(D4-E4)/D4</f>
         <v>0.69565217391304346</v>
       </c>
       <c r="G4" s="1"/>
@@ -564,7 +564,7 @@
         <v>252</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f>(D5-E5)/D5</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="G5" s="1"/>
@@ -586,7 +586,7 @@
         <v>200</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f>(D6-E6)/D6</f>
         <v>0.5901639344262295</v>
       </c>
       <c r="G6" s="1"/>
@@ -596,20 +596,20 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E7">
         <v>149</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.57790368271954673</v>
+        <f>(D7-E7)/D7</f>
+        <v>0.58379888268156421</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -630,7 +630,7 @@
         <v>347</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f>(D8-E8)/D8</f>
         <v>0.43668831168831168</v>
       </c>
       <c r="G8" s="1"/>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1891" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{387A7A0B-F926-4B4C-BD7C-A836DD563F83}"/>
+  <xr:revisionPtr revIDLastSave="1893" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D947FC48-DEE5-4FBA-A1F1-BF27DFC43014}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -138,10 +138,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,7 +443,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +494,7 @@
         <v>205</v>
       </c>
       <c r="F2" s="2">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F8" si="0">(D2-E2)/D2</f>
         <v>0.80623818525519853</v>
       </c>
       <c r="G2" s="1"/>
@@ -520,7 +516,7 @@
         <v>225</v>
       </c>
       <c r="F3" s="2">
-        <f>(D3-E3)/D3</f>
+        <f t="shared" si="0"/>
         <v>0.79357798165137616</v>
       </c>
       <c r="G3" s="1"/>
@@ -542,7 +538,7 @@
         <v>42</v>
       </c>
       <c r="F4" s="2">
-        <f>(D4-E4)/D4</f>
+        <f t="shared" si="0"/>
         <v>0.69565217391304346</v>
       </c>
       <c r="G4" s="1"/>
@@ -552,7 +548,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C5">
         <v>46</v>
@@ -561,11 +557,11 @@
         <v>756</v>
       </c>
       <c r="E5">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F5" s="2">
-        <f>(D5-E5)/D5</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="0"/>
+        <v>0.66534391534391535</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -586,7 +582,7 @@
         <v>200</v>
       </c>
       <c r="F6" s="2">
-        <f>(D6-E6)/D6</f>
+        <f t="shared" si="0"/>
         <v>0.5901639344262295</v>
       </c>
       <c r="G6" s="1"/>
@@ -608,7 +604,7 @@
         <v>149</v>
       </c>
       <c r="F7" s="2">
-        <f>(D7-E7)/D7</f>
+        <f t="shared" si="0"/>
         <v>0.58379888268156421</v>
       </c>
       <c r="G7" s="1"/>
@@ -630,7 +626,7 @@
         <v>347</v>
       </c>
       <c r="F8" s="2">
-        <f>(D8-E8)/D8</f>
+        <f t="shared" si="0"/>
         <v>0.43668831168831168</v>
       </c>
       <c r="G8" s="1"/>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1893" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D947FC48-DEE5-4FBA-A1F1-BF27DFC43014}"/>
+  <xr:revisionPtr revIDLastSave="1896" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6261B324-7457-45C4-A569-FEB2BC147072}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -138,6 +138,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,7 +447,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,20 +486,20 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C2">
         <v>93</v>
       </c>
       <c r="D2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="E2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ref="F2:F8" si="0">(D2-E2)/D2</f>
-        <v>0.80623818525519853</v>
+        <v>0.80547686496694992</v>
       </c>
       <c r="G2" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1896" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6261B324-7457-45C4-A569-FEB2BC147072}"/>
+  <xr:revisionPtr revIDLastSave="1899" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDA394E6-37DE-42DD-8AE8-3C053CA0EF9A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,20 +596,20 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C7">
         <v>20</v>
       </c>
       <c r="D7">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E7">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.58379888268156421</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G7" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1899" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDA394E6-37DE-42DD-8AE8-3C053CA0EF9A}"/>
+  <xr:revisionPtr revIDLastSave="1902" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF25AF9D-12FF-47EA-BDA2-D76E6429B589}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,20 +486,20 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C2">
         <v>93</v>
       </c>
       <c r="D2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ref="F2:F8" si="0">(D2-E2)/D2</f>
-        <v>0.80547686496694992</v>
+        <v>0.80471698113207546</v>
       </c>
       <c r="G2" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1902" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF25AF9D-12FF-47EA-BDA2-D76E6429B589}"/>
+  <xr:revisionPtr revIDLastSave="1905" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA9714B1-F5D5-43B6-87C2-DE6210FE4FB8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,20 +530,20 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E4">
         <v>42</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.69565217391304346</v>
+        <v>0.70629370629370625</v>
       </c>
       <c r="G4" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1905" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA9714B1-F5D5-43B6-87C2-DE6210FE4FB8}"/>
+  <xr:revisionPtr revIDLastSave="1906" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{383F463D-B2AE-4015-8EE2-1433BD89985B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>WINS</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Andy Murray (GREAT BRITAIN)</t>
-  </si>
-  <si>
-    <t>Marin Čilić (CROATIA)</t>
   </si>
   <si>
     <t>Juan Martín Del Potro (ARGENTINA)</t>
@@ -444,10 +441,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +495,7 @@
         <v>207</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F8" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F7" si="0">(D2-E2)/D2</f>
         <v>0.80471698113207546</v>
       </c>
       <c r="G2" s="1"/>
@@ -527,7 +524,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>55</v>
@@ -571,7 +568,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>232</v>
@@ -593,7 +590,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>168</v>
@@ -614,25 +611,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>378</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>616</v>
-      </c>
-      <c r="E8">
-        <v>347</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.43668831168831168</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -653,10 +632,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F15" s="2"/>
@@ -687,7 +666,6 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F22" s="2"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.3">
@@ -725,9 +703,6 @@
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G35" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{886A4C9F-69C7-4226-BCD2-6825075A697E}">
@@ -735,7 +710,7 @@
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F2:F16 F39">
+  <conditionalFormatting sqref="F38 F2:F15">
     <cfRule type="iconSet" priority="61">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -744,8 +719,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F22">
-    <cfRule type="iconSet" priority="67">
+  <conditionalFormatting sqref="F2:F21">
+    <cfRule type="iconSet" priority="70">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1906" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{383F463D-B2AE-4015-8EE2-1433BD89985B}"/>
+  <xr:revisionPtr revIDLastSave="1908" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D43E287E-9682-46D2-8AD2-7A77BE588501}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -135,10 +135,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,7 +440,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,7 +545,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C5">
         <v>46</v>
@@ -558,11 +554,11 @@
         <v>756</v>
       </c>
       <c r="E5">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.66534391534391535</v>
+        <v>0.66402116402116407</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -710,8 +706,8 @@
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F38 F2:F15">
-    <cfRule type="iconSet" priority="61">
+  <conditionalFormatting sqref="F2:F21">
+    <cfRule type="iconSet" priority="70">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -719,8 +715,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F21">
-    <cfRule type="iconSet" priority="70">
+  <conditionalFormatting sqref="F38 F2:F15">
+    <cfRule type="iconSet" priority="61">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1908" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D43E287E-9682-46D2-8AD2-7A77BE588501}"/>
+  <xr:revisionPtr revIDLastSave="1915" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CD18CBB-062A-45D5-A271-3ADE4A74EE43}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -135,6 +135,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,12 +444,12 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
     <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
@@ -589,20 +593,20 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C7">
         <v>20</v>
       </c>
       <c r="D7">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E7">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <v>0.58287292817679559</v>
       </c>
       <c r="G7" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1915" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CD18CBB-062A-45D5-A271-3ADE4A74EE43}"/>
+  <xr:revisionPtr revIDLastSave="1920" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA6E0E13-74B7-425F-AB39-D1225E89B532}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,20 +527,20 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E4">
         <v>42</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.70629370629370625</v>
+        <v>0.71812080536912748</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -549,20 +549,20 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C5">
         <v>46</v>
       </c>
       <c r="D5">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="E5">
         <v>254</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.66402116402116407</v>
+        <v>0.66622864651773983</v>
       </c>
       <c r="G5" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1920" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA6E0E13-74B7-425F-AB39-D1225E89B532}"/>
+  <xr:revisionPtr revIDLastSave="1921" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8C09E31-5694-44B7-8984-4A36FE90B522}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,11 +558,11 @@
         <v>761</v>
       </c>
       <c r="E5">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.66622864651773983</v>
+        <v>0.66491458607095921</v>
       </c>
       <c r="G5" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1921" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8C09E31-5694-44B7-8984-4A36FE90B522}"/>
+  <xr:revisionPtr revIDLastSave="1924" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0AD8DD9-DE9F-4570-8027-87C41072F7AB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,20 +527,20 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.71812080536912748</v>
+        <v>0.71333333333333337</v>
       </c>
       <c r="G4" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1924" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0AD8DD9-DE9F-4570-8027-87C41072F7AB}"/>
+  <xr:revisionPtr revIDLastSave="1932" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{089F87CF-C825-481D-B361-978FD7993A39}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,20 +483,20 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C2">
         <v>93</v>
       </c>
       <c r="D2">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="E2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ref="F2:F7" si="0">(D2-E2)/D2</f>
-        <v>0.80471698113207546</v>
+        <v>0.80432737535277521</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -549,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C5">
         <v>46</v>
@@ -558,11 +558,11 @@
         <v>761</v>
       </c>
       <c r="E5">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.66491458607095921</v>
+        <v>0.66360052562417871</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -593,20 +593,20 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E7">
         <v>151</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.58287292817679559</v>
+        <v>0.58967391304347827</v>
       </c>
       <c r="G7" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1932" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{089F87CF-C825-481D-B361-978FD7993A39}"/>
+  <xr:revisionPtr revIDLastSave="1935" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DC71AA6-711B-4316-B01F-4EAE5869AEC0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Men's Singles Grand Slam Champs" sheetId="1" r:id="rId1"/>
+    <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Men''s Singles Grand Slam Champs'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ATP YTD Leaderboard'!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,7 +593,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C7">
         <v>21</v>
@@ -602,11 +602,11 @@
         <v>368</v>
       </c>
       <c r="E7">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.58967391304347827</v>
+        <v>0.58695652173913049</v>
       </c>
       <c r="G7" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1935" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DC71AA6-711B-4316-B01F-4EAE5869AEC0}"/>
+  <xr:revisionPtr revIDLastSave="1938" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6698EDE4-05CE-4B0A-B912-984B74D31A0D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,20 +527,20 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.71333333333333337</v>
+        <v>0.71612903225806457</v>
       </c>
       <c r="G4" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1938" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6698EDE4-05CE-4B0A-B912-984B74D31A0D}"/>
+  <xr:revisionPtr revIDLastSave="1941" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5CBAE05-CCFC-48FF-A1DF-39166ED237B5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,20 +483,20 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="E2">
         <v>208</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ref="F2:F7" si="0">(D2-E2)/D2</f>
-        <v>0.80432737535277521</v>
+        <v>0.80560747663551402</v>
       </c>
       <c r="G2" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1941" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5CBAE05-CCFC-48FF-A1DF-39166ED237B5}"/>
+  <xr:revisionPtr revIDLastSave="1943" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B50D8FC-9A20-4A06-8241-2FF2DE5E6E8C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,20 +549,20 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C5">
         <v>46</v>
       </c>
       <c r="D5">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="E5">
         <v>256</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.66360052562417871</v>
+        <v>0.66579634464751958</v>
       </c>
       <c r="G5" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1943" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B50D8FC-9A20-4A06-8241-2FF2DE5E6E8C}"/>
+  <xr:revisionPtr revIDLastSave="1945" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5279408F-C1A9-4F00-AEBE-D526DB531227}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,7 +593,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C7">
         <v>21</v>
@@ -602,11 +602,11 @@
         <v>368</v>
       </c>
       <c r="E7">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.58695652173913049</v>
+        <v>0.58423913043478259</v>
       </c>
       <c r="G7" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1945" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5279408F-C1A9-4F00-AEBE-D526DB531227}"/>
+  <xr:revisionPtr revIDLastSave="1949" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F3F12B0-9F61-408C-A27F-E009BA8120BB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,20 +549,20 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C5">
         <v>46</v>
       </c>
       <c r="D5">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="E5">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.66579634464751958</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G5" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1949" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F3F12B0-9F61-408C-A27F-E009BA8120BB}"/>
+  <xr:revisionPtr revIDLastSave="1952" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CD062EB-1436-4D38-AFD8-8441C6658BEB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,20 +593,20 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C7">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E7">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.58423913043478259</v>
+        <v>0.58378378378378382</v>
       </c>
       <c r="G7" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1952" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CD062EB-1436-4D38-AFD8-8441C6658BEB}"/>
+  <xr:revisionPtr revIDLastSave="1955" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3D5AA6B-0A7D-464F-BAA8-62EDB1126A63}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,20 +527,20 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E4">
         <v>44</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.71612903225806457</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="G4" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1955" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3D5AA6B-0A7D-464F-BAA8-62EDB1126A63}"/>
+  <xr:revisionPtr revIDLastSave="1958" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1377EBE-792A-4BD5-8C94-B6B7C7B1BB22}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,20 +549,20 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C5">
         <v>46</v>
       </c>
       <c r="D5">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E5">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.66580310880829019</v>
       </c>
       <c r="G5" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1932" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{089F87CF-C825-481D-B361-978FD7993A39}"/>
+  <xr:revisionPtr revIDLastSave="1958" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1377EBE-792A-4BD5-8C94-B6B7C7B1BB22}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Men's Singles Grand Slam Champs" sheetId="1" r:id="rId1"/>
+    <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Men''s Singles Grand Slam Champs'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ATP YTD Leaderboard'!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,20 +483,20 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="E2">
         <v>208</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ref="F2:F7" si="0">(D2-E2)/D2</f>
-        <v>0.80432737535277521</v>
+        <v>0.80560747663551402</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -527,20 +527,20 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.71333333333333337</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -549,20 +549,20 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C5">
         <v>46</v>
       </c>
       <c r="D5">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="E5">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.66360052562417871</v>
+        <v>0.66580310880829019</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -593,20 +593,20 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C7">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E7">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.58967391304347827</v>
+        <v>0.58378378378378382</v>
       </c>
       <c r="G7" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1958" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1377EBE-792A-4BD5-8C94-B6B7C7B1BB22}"/>
+  <xr:revisionPtr revIDLastSave="1961" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49E18DF8-03FB-4E10-84D7-3576687B0303}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,20 +593,20 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C7">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E7">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.58378378378378382</v>
+        <v>0.58666666666666667</v>
       </c>
       <c r="G7" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1961" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49E18DF8-03FB-4E10-84D7-3576687B0303}"/>
+  <xr:revisionPtr revIDLastSave="1967" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB0B7CFA-1C83-440D-9C46-D100AEA17E8E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,20 +483,20 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C2">
         <v>94</v>
       </c>
       <c r="D2">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="E2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ref="F2:F7" si="0">(D2-E2)/D2</f>
-        <v>0.80560747663551402</v>
+        <v>0.80576208178438657</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -527,20 +527,20 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E4">
         <v>44</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.72499999999999998</v>
+        <v>0.73652694610778446</v>
       </c>
       <c r="G4" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1967" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB0B7CFA-1C83-440D-9C46-D100AEA17E8E}"/>
+  <xr:revisionPtr revIDLastSave="1970" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0554506F-17D9-4F57-8F5C-AA5731384AC2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -135,10 +135,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,7 +440,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,20 +545,20 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C5">
         <v>46</v>
       </c>
       <c r="D5">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E5">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.66580310880829019</v>
+        <v>0.66494178525226388</v>
       </c>
       <c r="G5" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1970" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0554506F-17D9-4F57-8F5C-AA5731384AC2}"/>
+  <xr:revisionPtr revIDLastSave="1972" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBB8F693-2C49-42AF-AD55-2B6F4C557624}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -135,6 +135,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,20 +549,20 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C5">
         <v>46</v>
       </c>
       <c r="D5">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E5">
         <v>259</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.66494178525226388</v>
+        <v>0.66580645161290319</v>
       </c>
       <c r="G5" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1972" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBB8F693-2C49-42AF-AD55-2B6F4C557624}"/>
+  <xr:revisionPtr revIDLastSave="1975" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2E5DF70-06D1-4590-A6C8-A5E88DF54A82}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="3276" yWindow="3276" windowWidth="17280" windowHeight="8880" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,20 +593,20 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C7">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E7">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.58666666666666667</v>
+        <v>0.58620689655172409</v>
       </c>
       <c r="G7" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1975" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2E5DF70-06D1-4590-A6C8-A5E88DF54A82}"/>
+  <xr:revisionPtr revIDLastSave="1978" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6504E849-A149-40F1-BD66-FE5CA087123A}"/>
   <bookViews>
-    <workbookView xWindow="3276" yWindow="3276" windowWidth="17280" windowHeight="8880" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,20 +527,20 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.73652694610778446</v>
+        <v>0.73372781065088755</v>
       </c>
       <c r="G4" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1978" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6504E849-A149-40F1-BD66-FE5CA087123A}"/>
+  <xr:revisionPtr revIDLastSave="1981" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45A61BAA-BA66-4DA9-B3FB-9918373AA866}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,20 +593,20 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C7">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E7">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.58620689655172409</v>
+        <v>0.58465608465608465</v>
       </c>
       <c r="G7" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1981" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45A61BAA-BA66-4DA9-B3FB-9918373AA866}"/>
+  <xr:revisionPtr revIDLastSave="1986" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FFAC05F-F329-48E2-A9AB-43F611DB9C45}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,20 +483,20 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D2">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="E2">
         <v>209</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ref="F2:F7" si="0">(D2-E2)/D2</f>
-        <v>0.80576208178438657</v>
+        <v>0.80666049953746533</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -533,14 +533,14 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.73372781065088755</v>
+        <v>0.73410404624277459</v>
       </c>
       <c r="G4" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1986" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FFAC05F-F329-48E2-A9AB-43F611DB9C45}"/>
+  <xr:revisionPtr revIDLastSave="1989" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EE47758-4EB5-4A9F-8DD4-C6B43F673604}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,20 +549,20 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C5">
         <v>46</v>
       </c>
       <c r="D5">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E5">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.66580645161290319</v>
+        <v>0.66494845360824739</v>
       </c>
       <c r="G5" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1989" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EE47758-4EB5-4A9F-8DD4-C6B43F673604}"/>
+  <xr:revisionPtr revIDLastSave="1992" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11B76772-304A-4A1D-9689-B85B9F10CEAA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,20 +527,20 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.73410404624277459</v>
+        <v>0.7359550561797753</v>
       </c>
       <c r="G4" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1992" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11B76772-304A-4A1D-9689-B85B9F10CEAA}"/>
+  <xr:revisionPtr revIDLastSave="1998" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6589D5C-4109-49FD-9AA9-CB1038CABA27}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,20 +483,20 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D2">
-        <v>1081</v>
+        <v>1088</v>
       </c>
       <c r="E2">
         <v>209</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ref="F2:F7" si="0">(D2-E2)/D2</f>
-        <v>0.80666049953746533</v>
+        <v>0.80790441176470584</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -593,20 +593,20 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C7">
         <v>21</v>
       </c>
       <c r="D7">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E7">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.58465608465608465</v>
+        <v>0.58854166666666663</v>
       </c>
       <c r="G7" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1998" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6589D5C-4109-49FD-9AA9-CB1038CABA27}"/>
+  <xr:revisionPtr revIDLastSave="2007" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89038C6D-9022-408C-B79C-948DE2B12C71}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>WINS</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Daniil Medvedev (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Andy Roddick (USA)</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,7 +498,7 @@
         <v>209</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F7" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F8" si="0">(D2-E2)/D2</f>
         <v>0.80790441176470584</v>
       </c>
       <c r="G2" s="1"/>
@@ -549,69 +552,87 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C5">
         <v>46</v>
       </c>
       <c r="D5">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E5">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.66494845360824739</v>
+        <v>0.6640926640926641</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>488</v>
+        <v>624</v>
       </c>
       <c r="E6">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.5901639344262295</v>
+        <v>0.66185897435897434</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>384</v>
+        <v>488</v>
       </c>
       <c r="E7">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
+        <v>0.5901639344262295</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>177</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>384</v>
+      </c>
+      <c r="E8">
+        <v>158</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
         <v>0.58854166666666663</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F8" s="2"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2007" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89038C6D-9022-408C-B79C-948DE2B12C71}"/>
+  <xr:revisionPtr revIDLastSave="2010" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10FE1AD2-4F93-44E8-A4C6-09FC7AF9816D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,20 +530,20 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.7359550561797753</v>
+        <v>0.73480662983425415</v>
       </c>
       <c r="G4" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2010" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10FE1AD2-4F93-44E8-A4C6-09FC7AF9816D}"/>
+  <xr:revisionPtr revIDLastSave="2015" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11D0A637-1D28-4BEA-9803-50C0C2BE9BB4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +552,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C5">
         <v>46</v>
@@ -561,11 +561,11 @@
         <v>777</v>
       </c>
       <c r="E5">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.6640926640926641</v>
+        <v>0.66280566280566278</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -618,20 +618,20 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C8">
         <v>21</v>
       </c>
       <c r="D8">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.58854166666666663</v>
+        <v>0.59020618556701032</v>
       </c>
       <c r="G8" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2015" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11D0A637-1D28-4BEA-9803-50C0C2BE9BB4}"/>
+  <xr:revisionPtr revIDLastSave="2023" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95F1B688-D5F2-42BC-B985-265CA1063665}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -450,17 +450,17 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -481,7 +481,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -503,7 +503,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -525,29 +525,29 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.73480662983425415</v>
+        <v>0.73224043715846998</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -569,7 +569,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -591,7 +591,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -613,116 +613,116 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C8">
         <v>21</v>
       </c>
       <c r="D8">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.59020618556701032</v>
+        <v>0.58868894601542421</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2023" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95F1B688-D5F2-42BC-B985-265CA1063665}"/>
+  <xr:revisionPtr revIDLastSave="2026" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA508DE1-8C77-46B1-9357-233DC5565606}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -447,20 +447,20 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -481,7 +481,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -503,7 +503,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -525,7 +525,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -547,29 +547,29 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C5">
         <v>46</v>
       </c>
       <c r="D5">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E5">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.66280566280566278</v>
+        <v>0.66195372750642678</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -591,7 +591,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -613,7 +613,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -635,94 +635,94 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G34" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2026" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA508DE1-8C77-46B1-9357-233DC5565606}"/>
+  <xr:revisionPtr revIDLastSave="2029" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AC87938-3E0E-4F0E-9DF1-14E17EB96208}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -447,20 +447,20 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -481,7 +481,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -503,7 +503,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -525,7 +525,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -547,7 +547,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -569,7 +569,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -591,7 +591,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -613,116 +613,116 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C8">
         <v>21</v>
       </c>
       <c r="D8">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.58868894601542421</v>
+        <v>0.59033078880407119</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2029" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AC87938-3E0E-4F0E-9DF1-14E17EB96208}"/>
+  <xr:revisionPtr revIDLastSave="2036" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{269A5581-BE1D-4301-AE1C-FC9AE564F132}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -447,20 +447,20 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -481,7 +481,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -503,7 +503,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -525,12 +525,12 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -539,37 +539,37 @@
         <v>183</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.73224043715846998</v>
+        <v>0.72677595628415304</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>778</v>
       </c>
       <c r="E5">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.66195372750642678</v>
+        <v>0.66066838046272491</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -591,7 +591,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -613,12 +613,12 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C8">
         <v>21</v>
@@ -627,102 +627,102 @@
         <v>393</v>
       </c>
       <c r="E8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0.59033078880407119</v>
+        <v>0.58778625954198471</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G34" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2036" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{269A5581-BE1D-4301-AE1C-FC9AE564F132}"/>
+  <xr:revisionPtr revIDLastSave="2040" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6725A4ED-8325-45F7-8BFE-98F2FBDBDED5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -447,20 +447,20 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -481,29 +481,29 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D2">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="E2">
         <v>209</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F8" si="0">(D2-E2)/D2</f>
-        <v>0.80790441176470584</v>
+        <f>(D2-E2)/D2</f>
+        <v>0.80878316559926811</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -520,12 +520,12 @@
         <v>225</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
+        <f>(D3-E3)/D3</f>
         <v>0.79357798165137616</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -542,56 +542,56 @@
         <v>50</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f>(D4-E4)/D4</f>
         <v>0.72677595628415304</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>254</v>
+      </c>
+      <c r="C5">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>624</v>
+      </c>
+      <c r="E5">
+        <v>211</v>
+      </c>
+      <c r="F5" s="2">
+        <f>(D5-E5)/D5</f>
+        <v>0.66185897435897434</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>333</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>47</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>778</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>264</v>
       </c>
-      <c r="F5" s="2">
-        <f t="shared" si="0"/>
+      <c r="F6" s="2">
+        <f>(D6-E6)/D6</f>
         <v>0.66066838046272491</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>254</v>
-      </c>
-      <c r="C6">
-        <v>32</v>
-      </c>
-      <c r="D6">
-        <v>624</v>
-      </c>
-      <c r="E6">
-        <v>211</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.66185897435897434</v>
-      </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -608,12 +608,12 @@
         <v>200</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f>(D7-E7)/D7</f>
         <v>0.5901639344262295</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -630,99 +630,99 @@
         <v>162</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f>(D8-E8)/D8</f>
         <v>0.58778625954198471</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2040" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6725A4ED-8325-45F7-8BFE-98F2FBDBDED5}"/>
+  <xr:revisionPtr revIDLastSave="2045" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0172E8C8-28F5-4EE4-89F5-C30A7ACD7D77}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -447,20 +447,20 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -481,7 +481,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -503,7 +503,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -525,7 +525,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -547,7 +547,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -569,7 +569,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -591,7 +591,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -613,116 +613,116 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C8">
         <v>21</v>
       </c>
       <c r="D8">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F8" s="2">
         <f>(D8-E8)/D8</f>
-        <v>0.58778625954198471</v>
+        <v>0.58481012658227849</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G34" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2045" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0172E8C8-28F5-4EE4-89F5-C30A7ACD7D77}"/>
+  <xr:revisionPtr revIDLastSave="2048" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D5990D4-7412-4DEE-9807-6B8D42DCF4AF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -138,10 +138,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,7 +494,7 @@
         <v>209</v>
       </c>
       <c r="F2" s="2">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F8" si="0">(D2-E2)/D2</f>
         <v>0.80878316559926811</v>
       </c>
       <c r="G2" s="1"/>
@@ -520,7 +516,7 @@
         <v>225</v>
       </c>
       <c r="F3" s="2">
-        <f>(D3-E3)/D3</f>
+        <f t="shared" si="0"/>
         <v>0.79357798165137616</v>
       </c>
       <c r="G3" s="1"/>
@@ -530,20 +526,20 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2">
-        <f>(D4-E4)/D4</f>
-        <v>0.72677595628415304</v>
+        <f t="shared" si="0"/>
+        <v>0.72432432432432436</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -564,7 +560,7 @@
         <v>211</v>
       </c>
       <c r="F5" s="2">
-        <f>(D5-E5)/D5</f>
+        <f t="shared" si="0"/>
         <v>0.66185897435897434</v>
       </c>
       <c r="G5" s="1"/>
@@ -586,7 +582,7 @@
         <v>264</v>
       </c>
       <c r="F6" s="2">
-        <f>(D6-E6)/D6</f>
+        <f t="shared" si="0"/>
         <v>0.66066838046272491</v>
       </c>
       <c r="G6" s="1"/>
@@ -608,7 +604,7 @@
         <v>200</v>
       </c>
       <c r="F7" s="2">
-        <f>(D7-E7)/D7</f>
+        <f t="shared" si="0"/>
         <v>0.5901639344262295</v>
       </c>
       <c r="G7" s="1"/>
@@ -630,7 +626,7 @@
         <v>164</v>
       </c>
       <c r="F8" s="2">
-        <f>(D8-E8)/D8</f>
+        <f t="shared" si="0"/>
         <v>0.58481012658227849</v>
       </c>
       <c r="G8" s="1"/>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2048" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D5990D4-7412-4DEE-9807-6B8D42DCF4AF}"/>
+  <xr:revisionPtr revIDLastSave="2055" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02FA343C-9183-490B-845A-6EABC791E6C3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -138,6 +138,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,7 +447,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,20 +486,20 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D2">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="E2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F8" si="0">(D2-E2)/D2</f>
-        <v>0.80878316559926811</v>
+        <f>(D2-E2)/D2</f>
+        <v>0.80800727934485894</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -516,7 +520,7 @@
         <v>225</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
+        <f>(D3-E3)/D3</f>
         <v>0.79357798165137616</v>
       </c>
       <c r="G3" s="1"/>
@@ -538,7 +542,7 @@
         <v>51</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f>(D4-E4)/D4</f>
         <v>0.72432432432432436</v>
       </c>
       <c r="G4" s="1"/>
@@ -560,7 +564,7 @@
         <v>211</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f>(D5-E5)/D5</f>
         <v>0.66185897435897434</v>
       </c>
       <c r="G5" s="1"/>
@@ -570,20 +574,20 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C6">
         <v>47</v>
       </c>
       <c r="D6">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E6">
         <v>264</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.66066838046272491</v>
+        <f>(D6-E6)/D6</f>
+        <v>0.6611039794608472</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -604,7 +608,7 @@
         <v>200</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f>(D7-E7)/D7</f>
         <v>0.5901639344262295</v>
       </c>
       <c r="G7" s="1"/>
@@ -626,7 +630,7 @@
         <v>164</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f>(D8-E8)/D8</f>
         <v>0.58481012658227849</v>
       </c>
       <c r="G8" s="1"/>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2055" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02FA343C-9183-490B-845A-6EABC791E6C3}"/>
+  <xr:revisionPtr revIDLastSave="2057" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCFB117C-0AB2-47C8-AEB2-1E135DFFEC7D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -138,10 +138,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,7 +443,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +494,7 @@
         <v>211</v>
       </c>
       <c r="F2" s="2">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F8" si="0">(D2-E2)/D2</f>
         <v>0.80800727934485894</v>
       </c>
       <c r="G2" s="1"/>
@@ -520,7 +516,7 @@
         <v>225</v>
       </c>
       <c r="F3" s="2">
-        <f>(D3-E3)/D3</f>
+        <f t="shared" si="0"/>
         <v>0.79357798165137616</v>
       </c>
       <c r="G3" s="1"/>
@@ -542,7 +538,7 @@
         <v>51</v>
       </c>
       <c r="F4" s="2">
-        <f>(D4-E4)/D4</f>
+        <f t="shared" si="0"/>
         <v>0.72432432432432436</v>
       </c>
       <c r="G4" s="1"/>
@@ -564,7 +560,7 @@
         <v>211</v>
       </c>
       <c r="F5" s="2">
-        <f>(D5-E5)/D5</f>
+        <f t="shared" si="0"/>
         <v>0.66185897435897434</v>
       </c>
       <c r="G5" s="1"/>
@@ -586,7 +582,7 @@
         <v>264</v>
       </c>
       <c r="F6" s="2">
-        <f>(D6-E6)/D6</f>
+        <f t="shared" si="0"/>
         <v>0.6611039794608472</v>
       </c>
       <c r="G6" s="1"/>
@@ -608,7 +604,7 @@
         <v>200</v>
       </c>
       <c r="F7" s="2">
-        <f>(D7-E7)/D7</f>
+        <f t="shared" si="0"/>
         <v>0.5901639344262295</v>
       </c>
       <c r="G7" s="1"/>
@@ -630,7 +626,7 @@
         <v>164</v>
       </c>
       <c r="F8" s="2">
-        <f>(D8-E8)/D8</f>
+        <f t="shared" si="0"/>
         <v>0.58481012658227849</v>
       </c>
       <c r="G8" s="1"/>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2057" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCFB117C-0AB2-47C8-AEB2-1E135DFFEC7D}"/>
+  <xr:revisionPtr revIDLastSave="2061" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76144D84-0763-4FC4-ACC6-504E57D657E0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -138,6 +138,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,7 +447,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C6">
         <v>47</v>
@@ -579,11 +583,11 @@
         <v>779</v>
       </c>
       <c r="E6">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.6611039794608472</v>
+        <v>0.65982028241335045</v>
       </c>
       <c r="G6" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2061" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76144D84-0763-4FC4-ACC6-504E57D657E0}"/>
+  <xr:revisionPtr revIDLastSave="2064" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E9499FB-5837-42FA-BB04-D2E54395220A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,20 +508,20 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C3">
         <v>92</v>
       </c>
       <c r="D3">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="E3">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="0"/>
-        <v>0.79357798165137616</v>
+        <v>0.793040293040293</v>
       </c>
       <c r="G3" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2064" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E9499FB-5837-42FA-BB04-D2E54395220A}"/>
+  <xr:revisionPtr revIDLastSave="2065" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34D7D140-742E-4AD2-AE1A-46DF257C3C7F}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -138,10 +138,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,20 +443,20 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -481,7 +477,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -503,7 +499,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -525,7 +521,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -547,7 +543,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -569,7 +565,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -591,7 +587,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -613,7 +609,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -635,94 +631,94 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2065" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34D7D140-742E-4AD2-AE1A-46DF257C3C7F}"/>
+  <xr:revisionPtr revIDLastSave="2068" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80245C91-A6ED-4BBB-A672-DBD74DE18AFF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -140,10 +140,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -181,7 +185,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -287,7 +291,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -429,7 +433,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -443,7 +447,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,20 +574,20 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>779</v>
       </c>
       <c r="E6">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.65982028241335045</v>
+        <v>0.65853658536585369</v>
       </c>
       <c r="G6" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2068" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80245C91-A6ED-4BBB-A672-DBD74DE18AFF}"/>
+  <xr:revisionPtr revIDLastSave="2071" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF350F15-C556-4192-8596-5AB81097DA21}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,20 +530,20 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.72432432432432436</v>
+        <v>0.71957671957671954</v>
       </c>
       <c r="G4" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2071" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF350F15-C556-4192-8596-5AB81097DA21}"/>
+  <xr:revisionPtr revIDLastSave="2074" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E406AD1-BB0F-4D44-BAA8-7198FBCC485C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,20 +486,20 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C2">
         <v>98</v>
       </c>
       <c r="D2">
-        <v>1099</v>
+        <v>1104</v>
       </c>
       <c r="E2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ref="F2:F8" si="0">(D2-E2)/D2</f>
-        <v>0.80800727934485894</v>
+        <v>0.80797101449275366</v>
       </c>
       <c r="G2" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2074" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E406AD1-BB0F-4D44-BAA8-7198FBCC485C}"/>
+  <xr:revisionPtr revIDLastSave="2083" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA898476-1D3E-4147-A8A1-C69FF4A632CF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="17970" yWindow="390" windowWidth="18885" windowHeight="15285" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>WINS</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Andy Roddick (USA)</t>
+  </si>
+  <si>
+    <t>Jannik Sinner (ITALY)</t>
   </si>
 </sst>
 </file>
@@ -145,9 +148,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -185,7 +188,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -291,7 +294,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -433,7 +436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -447,7 +450,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +501,7 @@
         <v>212</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F8" si="0">(D2-E2)/D2</f>
+        <f>(D2-E2)/D2</f>
         <v>0.80797101449275366</v>
       </c>
       <c r="G2" s="1"/>
@@ -520,7 +523,7 @@
         <v>226</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
+        <f>(D3-E3)/D3</f>
         <v>0.793040293040293</v>
       </c>
       <c r="G3" s="1"/>
@@ -542,7 +545,7 @@
         <v>53</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f>(D4-E4)/D4</f>
         <v>0.71957671957671954</v>
       </c>
       <c r="G4" s="1"/>
@@ -564,7 +567,7 @@
         <v>211</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f>(D5-E5)/D5</f>
         <v>0.66185897435897434</v>
       </c>
       <c r="G5" s="1"/>
@@ -574,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C6">
         <v>46</v>
@@ -583,60 +586,78 @@
         <v>779</v>
       </c>
       <c r="E6">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.65853658536585369</v>
+        <f>(D6-E6)/D6</f>
+        <v>0.65725288831835682</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>232</v>
+        <v>107</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>488</v>
+        <v>226</v>
       </c>
       <c r="E7">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.5901639344262295</v>
+        <f>(D7-E7)/D7</f>
+        <v>0.61504424778761058</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>232</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>488</v>
+      </c>
+      <c r="E8">
+        <v>200</v>
+      </c>
+      <c r="F8" s="2">
+        <f>(D8-E8)/D8</f>
+        <v>0.5901639344262295</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>182</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>21</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>395</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>164</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
+      <c r="F9" s="2">
+        <f>(D9-E9)/D9</f>
         <v>0.58481012658227849</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F9" s="2"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -727,7 +748,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{886A4C9F-69C7-4226-BCD2-6825075A697E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F8">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F9">
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2083" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA898476-1D3E-4147-A8A1-C69FF4A632CF}"/>
+  <xr:revisionPtr revIDLastSave="2090" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22E8A383-D7B5-4FAB-B0F6-856FDB88D3C0}"/>
   <bookViews>
-    <workbookView xWindow="17970" yWindow="390" windowWidth="18885" windowHeight="15285" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="19305" windowHeight="17130" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,20 +577,20 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>779</v>
       </c>
       <c r="E6">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F6" s="2">
         <f>(D6-E6)/D6</f>
-        <v>0.65725288831835682</v>
+        <v>0.65596919127086006</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -752,8 +752,8 @@
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F2:F21">
-    <cfRule type="iconSet" priority="70">
+  <conditionalFormatting sqref="F10:F21">
+    <cfRule type="iconSet" priority="71">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -761,8 +761,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38 F2:F15">
-    <cfRule type="iconSet" priority="61">
+  <conditionalFormatting sqref="F38 F10:F15">
+    <cfRule type="iconSet" priority="62">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F9">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2090" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22E8A383-D7B5-4FAB-B0F6-856FDB88D3C0}"/>
+  <xr:revisionPtr revIDLastSave="2093" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A25CB462-6A96-4E1B-9354-F7295B30CE9A}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="19305" windowHeight="17130" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +501,7 @@
         <v>212</v>
       </c>
       <c r="F2" s="2">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F9" si="0">(D2-E2)/D2</f>
         <v>0.80797101449275366</v>
       </c>
       <c r="G2" s="1"/>
@@ -523,7 +523,7 @@
         <v>226</v>
       </c>
       <c r="F3" s="2">
-        <f>(D3-E3)/D3</f>
+        <f t="shared" si="0"/>
         <v>0.793040293040293</v>
       </c>
       <c r="G3" s="1"/>
@@ -533,20 +533,20 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F4" s="2">
-        <f>(D4-E4)/D4</f>
-        <v>0.71957671957671954</v>
+        <f t="shared" si="0"/>
+        <v>0.7172774869109948</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -567,7 +567,7 @@
         <v>211</v>
       </c>
       <c r="F5" s="2">
-        <f>(D5-E5)/D5</f>
+        <f t="shared" si="0"/>
         <v>0.66185897435897434</v>
       </c>
       <c r="G5" s="1"/>
@@ -589,7 +589,7 @@
         <v>268</v>
       </c>
       <c r="F6" s="2">
-        <f>(D6-E6)/D6</f>
+        <f t="shared" si="0"/>
         <v>0.65596919127086006</v>
       </c>
       <c r="G6" s="1"/>
@@ -611,7 +611,7 @@
         <v>87</v>
       </c>
       <c r="F7" s="2">
-        <f>(D7-E7)/D7</f>
+        <f t="shared" si="0"/>
         <v>0.61504424778761058</v>
       </c>
       <c r="G7" s="1"/>
@@ -633,7 +633,7 @@
         <v>200</v>
       </c>
       <c r="F8" s="2">
-        <f>(D8-E8)/D8</f>
+        <f t="shared" si="0"/>
         <v>0.5901639344262295</v>
       </c>
       <c r="G8" s="1"/>
@@ -655,7 +655,7 @@
         <v>164</v>
       </c>
       <c r="F9" s="2">
-        <f>(D9-E9)/D9</f>
+        <f t="shared" si="0"/>
         <v>0.58481012658227849</v>
       </c>
       <c r="G9" s="1"/>
@@ -752,6 +752,15 @@
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="F2:F9">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F10:F21">
     <cfRule type="iconSet" priority="71">
       <iconSet iconSet="3Symbols2">
@@ -770,15 +779,6 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F9">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2093" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A25CB462-6A96-4E1B-9354-F7295B30CE9A}"/>
+  <xr:revisionPtr revIDLastSave="2098" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05A8B4A3-3A75-4822-8AAF-7462B2EDFF38}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,20 +599,20 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E7">
         <v>87</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.61504424778761058</v>
+        <v>0.62337662337662336</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -752,17 +752,8 @@
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F2:F9">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F10:F21">
-    <cfRule type="iconSet" priority="71">
+    <cfRule type="iconSet" priority="72">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -771,7 +762,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38 F10:F15">
-    <cfRule type="iconSet" priority="62">
+    <cfRule type="iconSet" priority="63">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F9">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2098" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05A8B4A3-3A75-4822-8AAF-7462B2EDFF38}"/>
+  <xr:revisionPtr revIDLastSave="2106" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDFE69F8-D835-48F8-A020-262F1E189598}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="33240" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +533,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -542,11 +542,11 @@
         <v>191</v>
       </c>
       <c r="E4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.7172774869109948</v>
+        <v>0.7120418848167539</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -577,20 +577,20 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C6">
         <v>47</v>
       </c>
       <c r="D6">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E6">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.65596919127086006</v>
+        <v>0.65512820512820513</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -752,24 +752,6 @@
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F10:F21">
-    <cfRule type="iconSet" priority="72">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38 F10:F15">
-    <cfRule type="iconSet" priority="63">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F2:F9">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2106" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDFE69F8-D835-48F8-A020-262F1E189598}"/>
+  <xr:revisionPtr revIDLastSave="2112" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EDBFC67-9B18-40D1-B967-1D4E150CB466}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="33240" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -148,9 +148,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -188,7 +188,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -294,7 +294,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,7 +436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -577,20 +577,20 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E6">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.65512820512820513</v>
+        <v>0.6542893725992317</v>
       </c>
       <c r="G6" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2112" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EDBFC67-9B18-40D1-B967-1D4E150CB466}"/>
+  <xr:revisionPtr revIDLastSave="2115" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1D68573-5939-4FEE-A75C-5D720D79FA4D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,20 +643,20 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C9">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="E9">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.58481012658227849</v>
+        <v>0.58910891089108908</v>
       </c>
       <c r="G9" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2115" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1D68573-5939-4FEE-A75C-5D720D79FA4D}"/>
+  <xr:revisionPtr revIDLastSave="2125" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5D50B9B-639E-456A-ABF4-6A612B026032}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -489,20 +489,20 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C2">
         <v>98</v>
       </c>
       <c r="D2">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="E2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ref="F2:F9" si="0">(D2-E2)/D2</f>
-        <v>0.80797101449275366</v>
+        <v>0.80723981900452491</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -577,20 +577,20 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C6">
         <v>46</v>
       </c>
       <c r="D6">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E6">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.6542893725992317</v>
+        <v>0.65345268542199486</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -599,20 +599,20 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.62337662337662336</v>
+        <v>0.62553191489361704</v>
       </c>
       <c r="G7" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2125" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5D50B9B-639E-456A-ABF4-6A612B026032}"/>
+  <xr:revisionPtr revIDLastSave="2131" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83E00B70-4799-4815-AF0B-3C2B74A15A1E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -533,20 +533,20 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E4">
         <v>55</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.7120418848167539</v>
+        <v>0.7208121827411168</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -643,20 +643,20 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C9">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="E9">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.58910891089108908</v>
+        <v>0.59168704156479213</v>
       </c>
       <c r="G9" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2131" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83E00B70-4799-4815-AF0B-3C2B74A15A1E}"/>
+  <xr:revisionPtr revIDLastSave="2146" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B030DC38-616A-4736-A486-0ABDF469C550}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -453,17 +453,17 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -484,7 +484,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -506,7 +506,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -528,29 +528,29 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>13</v>
       </c>
       <c r="D4">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.7208121827411168</v>
+        <v>0.72</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -572,51 +572,51 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C6">
         <v>46</v>
       </c>
       <c r="D6">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="E6">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.65345268542199486</v>
+        <v>0.65306122448979587</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E7">
         <v>88</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.62553191489361704</v>
+        <v>0.63485477178423233</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -638,112 +638,112 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C9">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="E9">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.59168704156479213</v>
+        <v>0.59178743961352653</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G34" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2146" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B030DC38-616A-4736-A486-0ABDF469C550}"/>
+  <xr:revisionPtr revIDLastSave="2153" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8B7DFCE-C53D-490F-BCF3-7A9E62608D2E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,20 +489,20 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C2">
         <v>98</v>
       </c>
       <c r="D2">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="E2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ref="F2:F9" si="0">(D2-E2)/D2</f>
-        <v>0.80723981900452491</v>
+        <v>0.80685920577617332</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -599,20 +599,20 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7">
         <v>13</v>
       </c>
       <c r="D7">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.63485477178423233</v>
+        <v>0.63524590163934425</v>
       </c>
       <c r="G7" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2153" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8B7DFCE-C53D-490F-BCF3-7A9E62608D2E}"/>
+  <xr:revisionPtr revIDLastSave="2156" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6BCC7D0-48AC-4D57-BCE9-5950FD858C69}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,20 +511,20 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C3">
         <v>92</v>
       </c>
       <c r="D3">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="E3">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="0"/>
-        <v>0.793040293040293</v>
+        <v>0.79231473010064046</v>
       </c>
       <c r="G3" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2156" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6BCC7D0-48AC-4D57-BCE9-5950FD858C69}"/>
+  <xr:revisionPtr revIDLastSave="2159" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51B29AB5-27AA-4DF8-9655-A61E8EB5E1A2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -511,20 +511,20 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C3">
         <v>92</v>
       </c>
       <c r="D3">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="E3">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="0"/>
-        <v>0.79231473010064046</v>
+        <v>0.79197080291970801</v>
       </c>
       <c r="G3" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2159" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51B29AB5-27AA-4DF8-9655-A61E8EB5E1A2}"/>
+  <xr:revisionPtr revIDLastSave="2167" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8456C87C-A3F5-42C1-B42D-94FD6C935C39}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -450,20 +450,20 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -484,7 +484,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -506,7 +506,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -528,29 +528,29 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4">
         <v>13</v>
       </c>
       <c r="D4">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.72</v>
+        <v>0.71921182266009853</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -572,7 +572,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -594,29 +594,29 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7">
         <v>13</v>
       </c>
       <c r="D7">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E7">
         <v>89</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.63524590163934425</v>
+        <v>0.63967611336032393</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -638,112 +638,112 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C9">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E9">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.59178743961352653</v>
+        <v>0.592326139088729</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2167" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8456C87C-A3F5-42C1-B42D-94FD6C935C39}"/>
+  <xr:revisionPtr revIDLastSave="2170" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F69F380-7044-4324-900B-DFC38481922E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,20 +511,20 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C3">
         <v>92</v>
       </c>
       <c r="D3">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="E3">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="0"/>
-        <v>0.79197080291970801</v>
+        <v>0.79124886052871468</v>
       </c>
       <c r="G3" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2170" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F69F380-7044-4324-900B-DFC38481922E}"/>
+  <xr:revisionPtr revIDLastSave="2173" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5787FBB7-AB2D-4D51-9630-34AC7F714C27}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -489,20 +489,20 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C2">
         <v>98</v>
       </c>
       <c r="D2">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="E2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ref="F2:F9" si="0">(D2-E2)/D2</f>
-        <v>0.80685920577617332</v>
+        <v>0.80613165013525701</v>
       </c>
       <c r="G2" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2173" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5787FBB7-AB2D-4D51-9630-34AC7F714C27}"/>
+  <xr:revisionPtr revIDLastSave="2179" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B609E57D-6AB5-46AF-B1A0-77C69AD32EC7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,20 +577,20 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C6">
         <v>46</v>
       </c>
       <c r="D6">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E6">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.65306122448979587</v>
+        <v>0.65222929936305729</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -643,20 +643,20 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C9">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E9">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.592326139088729</v>
+        <v>0.59188544152744627</v>
       </c>
       <c r="G9" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2179" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B609E57D-6AB5-46AF-B1A0-77C69AD32EC7}"/>
+  <xr:revisionPtr revIDLastSave="2181" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55DE0300-7D02-4C5D-B6AB-6C7F515724E8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -577,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C6">
         <v>46</v>
@@ -586,11 +586,11 @@
         <v>785</v>
       </c>
       <c r="E6">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.65222929936305729</v>
+        <v>0.65095541401273882</v>
       </c>
       <c r="G6" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2181" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55DE0300-7D02-4C5D-B6AB-6C7F515724E8}"/>
+  <xr:revisionPtr revIDLastSave="2189" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8296631C-2A0E-4ECD-AEC1-C26C15D90600}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,20 +489,20 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C2">
         <v>98</v>
       </c>
       <c r="D2">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="E2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ref="F2:F9" si="0">(D2-E2)/D2</f>
-        <v>0.80613165013525701</v>
+        <v>0.80558055805580553</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -511,7 +511,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C3">
         <v>92</v>
@@ -520,11 +520,11 @@
         <v>1097</v>
       </c>
       <c r="E3">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="0"/>
-        <v>0.79124886052871468</v>
+        <v>0.79033728350045573</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -577,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C6">
         <v>46</v>
@@ -586,11 +586,11 @@
         <v>785</v>
       </c>
       <c r="E6">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.65095541401273882</v>
+        <v>0.64968152866242035</v>
       </c>
       <c r="G6" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2189" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8296631C-2A0E-4ECD-AEC1-C26C15D90600}"/>
+  <xr:revisionPtr revIDLastSave="2201" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F183CE9F-BDAC-4C49-B0A3-DB6BF05D8C1B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -450,20 +450,20 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -484,29 +484,29 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C2">
         <v>98</v>
       </c>
       <c r="D2">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="E2">
         <v>216</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ref="F2:F9" si="0">(D2-E2)/D2</f>
-        <v>0.80558055805580553</v>
+        <v>0.80627802690582961</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -528,15 +528,15 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>203</v>
@@ -550,7 +550,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -572,12 +572,12 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C6">
         <v>46</v>
@@ -586,37 +586,37 @@
         <v>785</v>
       </c>
       <c r="E6">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.64968152866242035</v>
+        <v>0.64840764331210188</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7">
         <v>13</v>
       </c>
       <c r="D7">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.63967611336032393</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -638,112 +638,112 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C9">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E9">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.59188544152744627</v>
+        <v>0.59241706161137442</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G34" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2201" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F183CE9F-BDAC-4C49-B0A3-DB6BF05D8C1B}"/>
+  <xr:revisionPtr revIDLastSave="2213" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{771819AD-383B-4C23-9513-AAB54E21EDFD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -453,17 +453,17 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -484,7 +484,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -506,7 +506,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -528,29 +528,29 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>14</v>
       </c>
       <c r="D4">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.71921182266009853</v>
+        <v>0.71568627450980393</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -572,51 +572,51 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C6">
         <v>46</v>
       </c>
       <c r="D6">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E6">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.64840764331210188</v>
+        <v>0.6475826972010178</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E7">
         <v>90</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.6428571428571429</v>
+        <v>0.64980544747081714</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -638,112 +638,112 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C9">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E9">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.59241706161137442</v>
+        <v>0.59101654846335694</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2213" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{771819AD-383B-4C23-9513-AAB54E21EDFD}"/>
+  <xr:revisionPtr revIDLastSave="2229" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C850F1BA-438F-4A84-B4E9-4F6051A7B5C9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -450,20 +450,20 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -484,73 +484,73 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C2">
         <v>98</v>
       </c>
       <c r="D2">
-        <v>1115</v>
+        <v>1120</v>
       </c>
       <c r="E2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ref="F2:F9" si="0">(D2-E2)/D2</f>
-        <v>0.80627802690582961</v>
+        <v>0.80625000000000002</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C3">
         <v>92</v>
       </c>
       <c r="D3">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="E3">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="0"/>
-        <v>0.79033728350045573</v>
+        <v>0.7901907356948229</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="E4">
         <v>58</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.71568627450980393</v>
+        <v>0.73394495412844041</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -572,7 +572,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -594,29 +594,29 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7">
         <v>14</v>
       </c>
       <c r="D7">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.64980544747081714</v>
+        <v>0.65134099616858232</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -638,112 +638,112 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C9">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="E9">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.59101654846335694</v>
+        <v>0.59345794392523366</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G34" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2229" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C850F1BA-438F-4A84-B4E9-4F6051A7B5C9}"/>
+  <xr:revisionPtr revIDLastSave="2279" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7DB6EB0-812B-430B-B3D9-2D0900E218D3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -141,10 +141,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,20 +446,20 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -484,139 +480,139 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2">
-        <v>1120</v>
+        <v>1134</v>
       </c>
       <c r="E2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ref="F2:F9" si="0">(D2-E2)/D2</f>
-        <v>0.80625000000000002</v>
+        <v>0.80687830687830686</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C3">
         <v>92</v>
       </c>
       <c r="D3">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="E3">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="0"/>
-        <v>0.7901907356948229</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="E4">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.73394495412844041</v>
+        <v>0.7350427350427351</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>624</v>
+        <v>284</v>
       </c>
       <c r="E5">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.66185897435897434</v>
+        <v>0.67253521126760563</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>347</v>
+        <v>254</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>786</v>
+        <v>624</v>
       </c>
       <c r="E6">
-        <v>277</v>
+        <v>211</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.6475826972010178</v>
+        <v>0.66185897435897434</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>115</v>
+        <v>347</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>261</v>
+        <v>786</v>
       </c>
       <c r="E7">
-        <v>91</v>
+        <v>277</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.65134099616858232</v>
+        <v>0.6475826972010178</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -638,112 +634,112 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C9">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="E9">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.59345794392523366</v>
+        <v>0.59090909090909094</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2279" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7DB6EB0-812B-430B-B3D9-2D0900E218D3}"/>
+  <xr:revisionPtr revIDLastSave="2284" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0078A05B-C264-469C-82CD-A463B1D4915B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -141,6 +141,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,20 +450,20 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -480,7 +484,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -502,7 +506,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -524,29 +528,29 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4">
         <v>16</v>
       </c>
       <c r="D4">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.7350427350427351</v>
+        <v>0.73191489361702122</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -568,7 +572,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -590,7 +594,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -612,7 +616,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -634,12 +638,12 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C9">
         <v>21</v>
@@ -648,98 +652,98 @@
         <v>440</v>
       </c>
       <c r="E9">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.59090909090909094</v>
+        <v>0.58863636363636362</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G34" s="1"/>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2284" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0078A05B-C264-469C-82CD-A463B1D4915B}"/>
+  <xr:revisionPtr revIDLastSave="2308" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B09F2D46-F6FE-4BAF-9E3B-2A5C02DC0850}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15345" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>WINS</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Jannik Sinner (ITALY)</t>
+  </si>
+  <si>
+    <t>Marin Čilić (CROATIA)</t>
   </si>
 </sst>
 </file>
@@ -450,20 +453,20 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -484,34 +487,34 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C2">
         <v>99</v>
       </c>
       <c r="D2">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="E2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F9" si="0">(D2-E2)/D2</f>
-        <v>0.80687830687830686</v>
+        <f t="shared" ref="F2:F10" si="0">(D2-E2)/D2</f>
+        <v>0.80633802816901412</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C3">
         <v>92</v>
@@ -520,59 +523,59 @@
         <v>1102</v>
       </c>
       <c r="E3">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" si="0"/>
-        <v>0.78947368421052633</v>
+        <v>0.78856624319419233</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>16</v>
       </c>
       <c r="D4">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.73191489361702122</v>
+        <v>0.72881355932203384</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E5">
         <v>93</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.67253521126760563</v>
+        <v>0.68150684931506844</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -594,7 +597,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -616,7 +619,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -638,121 +641,148 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C9">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E9">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.58863636363636362</v>
+        <v>0.58503401360544216</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F10" s="2"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>391</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>625</v>
+      </c>
+      <c r="E10">
+        <v>359</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42559999999999998</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{886A4C9F-69C7-4226-BCD2-6825075A697E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F9">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F10">
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="F2:F9">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F10">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2308" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B09F2D46-F6FE-4BAF-9E3B-2A5C02DC0850}"/>
+  <xr:revisionPtr revIDLastSave="2326" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B33CE4B-8260-4C53-A65C-D067FD62F557}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15345" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP YTD Leaderboard" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,20 +492,20 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C2">
         <v>99</v>
       </c>
       <c r="D2">
-        <v>1136</v>
+        <v>1141</v>
       </c>
       <c r="E2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ref="F2:F10" si="0">(D2-E2)/D2</f>
-        <v>0.80633802816901412</v>
+        <v>0.80543382997370727</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -536,20 +536,20 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="E4">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.72881355932203384</v>
+        <v>0.73279352226720651</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -646,20 +646,20 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C9">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="E9">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.58503401360544216</v>
+        <v>0.58165548098434006</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -668,20 +668,20 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C10">
         <v>21</v>
       </c>
       <c r="D10">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E10">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.42559999999999998</v>
+        <v>0.42424242424242425</v>
       </c>
       <c r="G10" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2326" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B33CE4B-8260-4C53-A65C-D067FD62F557}"/>
+  <xr:revisionPtr revIDLastSave="2342" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{334584B3-F59D-4919-8274-4A61046101BF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -144,10 +144,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,7 +449,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,20 +488,20 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C2">
         <v>99</v>
       </c>
       <c r="D2">
-        <v>1141</v>
+        <v>1146</v>
       </c>
       <c r="E2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ref="F2:F10" si="0">(D2-E2)/D2</f>
-        <v>0.80543382997370727</v>
+        <v>0.80366492146596857</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -536,20 +532,20 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="E4">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.73279352226720651</v>
+        <v>0.73461538461538467</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -558,20 +554,20 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E5">
         <v>93</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.68150684931506844</v>
+        <v>0.68896321070234112</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -646,20 +642,20 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C9">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="E9">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.58165548098434006</v>
+        <v>0.58057395143487855</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -668,20 +664,20 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C10">
         <v>21</v>
       </c>
       <c r="D10">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E10">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.42424242424242425</v>
+        <v>0.42767295597484278</v>
       </c>
       <c r="G10" s="1"/>
     </row>

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2342" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{334584B3-F59D-4919-8274-4A61046101BF}"/>
+  <xr:revisionPtr revIDLastSave="2394" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9573CA16-014A-4393-837D-D7DA7B436012}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -488,20 +488,20 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>1146</v>
+        <v>1160</v>
       </c>
       <c r="E2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ref="F2:F10" si="0">(D2-E2)/D2</f>
-        <v>0.80366492146596857</v>
+        <v>0.80344827586206902</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -532,20 +532,20 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="E4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.73461538461538467</v>
+        <v>0.75352112676056338</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -554,20 +554,20 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="E5">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.68896321070234112</v>
+        <v>0.69811320754716977</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -642,20 +642,20 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C9">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="E9">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.58057395143487855</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -664,20 +664,20 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C10">
         <v>21</v>
       </c>
       <c r="D10">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="E10">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.42767295597484278</v>
+        <v>0.43143297380585516</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -769,15 +769,6 @@
       <sortCondition descending="1" ref="F1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F2:F9">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F2:F10">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">

--- a/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
+++ b/Tennis/ATP Tour/ATP YTD Winning Percentile Range Leaderboad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2394" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9573CA16-014A-4393-837D-D7DA7B436012}"/>
+  <xr:revisionPtr revIDLastSave="2409" documentId="8_{155BB3F0-942F-4466-88F7-DC395E587E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDA5B621-357F-4A44-B0A7-E6509AFA9231}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B4D56331-BF07-4A72-94AF-3C563291C7E5}"/>
   </bookViews>
@@ -488,20 +488,20 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2">
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="E2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ref="F2:F10" si="0">(D2-E2)/D2</f>
-        <v>0.80344827586206902</v>
+        <v>0.80343347639484974</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -532,20 +532,20 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="E4">
         <v>70</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.75352112676056338</v>
+        <v>0.76430976430976427</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -554,20 +554,20 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="E5">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0.69811320754716977</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -642,20 +642,20 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C9">
         <v>21</v>
       </c>
       <c r="D9">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E9">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.5757575757575758</v>
+        <v>0.56866952789699576</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -664,20 +664,20 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C10">
         <v>21</v>
       </c>
       <c r="D10">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E10">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.43143297380585516</v>
+        <v>0.42592592592592593</v>
       </c>
       <c r="G10" s="1"/>
     </row>
